--- a/loaded_influencer_data/koreanskincareworld/koreanskincareworld_video.xlsx
+++ b/loaded_influencer_data/koreanskincareworld/koreanskincareworld_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7473553693619522823</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10700</v>
+        <v>11500</v>
       </c>
       <c r="C2" t="n">
-        <v>1589</v>
+        <v>1681</v>
       </c>
       <c r="D2" t="n">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21.14018691588785</v>
+        <v>20.53913043478261</v>
       </c>
       <c r="I2" t="n">
-        <v>14.85046728971963</v>
+        <v>14.61739130434783</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.289719626168225</v>
+        <v>5.921739130434783</v>
       </c>
       <c r="L2" t="n">
-        <v>1.785046728971962</v>
+        <v>1.756521739130435</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,25 +559,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7466908971610180882</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29600</v>
+        <v>36600</v>
       </c>
       <c r="C3" t="n">
-        <v>827</v>
+        <v>911</v>
       </c>
       <c r="D3" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.08445945945946</v>
+        <v>3.546448087431694</v>
       </c>
       <c r="I3" t="n">
-        <v>2.793918918918919</v>
+        <v>2.489071038251366</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.290540540540541</v>
+        <v>1.057377049180328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5337837837837838</v>
+        <v>0.4672131147540983</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -612,694 +612,797 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@koreanskincareworld/video/7489499469310938375</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C4" t="n">
+        <v>319</v>
+      </c>
+      <c r="D4" t="n">
+        <v>161</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>I can't describe how much i love this toner from @Jumiso Official @JUMISO Influencers 🩵☁️✨
+You can buy yours from yesstyle use my code MYSHA25 to get extra $$ off!!</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>33.70786516853933</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.40168539325843</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.3061797752809</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.915730337078652</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@koreanskincareworld/video/7488788620690656520</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C5" t="n">
+        <v>347</v>
+      </c>
+      <c r="D5" t="n">
+        <v>344</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>79</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Love the morning glow i get from these toner pads💛✨
+@Centellian24
+#centellian24
+#kskincare #Porecare</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>47.72099447513812</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23.96408839779006</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23.75690607734807</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.455801104972376</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7486932924726660360</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B6" t="n">
+        <v>1603</v>
+      </c>
+      <c r="C6" t="n">
         <v>462</v>
       </c>
-      <c r="C4" t="n">
-        <v>179</v>
-      </c>
-      <c r="D4" t="n">
-        <v>107</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>35</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Adding @KAINE 카이네 caffetinal cream to my night routine💛☕️✨
-YESSTYLE CODE: MYSHA25
-@YesStyle</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>61.90476190476191</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38.74458874458874</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23.16017316017316</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.575757575757576</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="D6" t="n">
+        <v>474</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>89</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Love the morning glow i get from these toner pads💛✨
+@Centellian24
+#centellian24
+#kskincare #Porecare</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>58.39051777916406</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.82096069868996</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29.56955708047411</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.552089831565814</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7485851370008890631</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2525</v>
-      </c>
-      <c r="C5" t="n">
-        <v>584</v>
-      </c>
-      <c r="D5" t="n">
-        <v>514</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>104</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B7" t="n">
+        <v>3204</v>
+      </c>
+      <c r="C7" t="n">
+        <v>688</v>
+      </c>
+      <c r="D7" t="n">
+        <v>558</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>111</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Dreamy pr unboxing🥹💖
 Thankyou so much @dr.althea_ar 🫶🫶
 @dr.althea_official @Dr. Althea Influencers</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>43.48514851485149</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23.12871287128713</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20.35643564356436</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.118811881188119</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H7" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21.47315855181024</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17.41573033707865</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.464419475655431</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7485084183258205448</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1672</v>
-      </c>
-      <c r="C6" t="n">
-        <v>425</v>
-      </c>
-      <c r="D6" t="n">
-        <v>429</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>87</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="B8" t="n">
+        <v>2059</v>
+      </c>
+      <c r="C8" t="n">
+        <v>461</v>
+      </c>
+      <c r="D8" t="n">
+        <v>444</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>89</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Brighten, hydrate and fade dark spots with @Axis-Y official dark spot correcting cream💚✨
 You can get yours on</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>51.07655502392344</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25.41866028708134</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>25.65789473684211</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.203349282296651</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H8" t="n">
+        <v>43.95337542496357</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22.3895094706168</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.56386595434677</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.322486644001942</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7484376447830838546</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1412</v>
-      </c>
-      <c r="C7" t="n">
-        <v>387</v>
-      </c>
-      <c r="D7" t="n">
-        <v>373</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="B9" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C9" t="n">
+        <v>413</v>
+      </c>
+      <c r="D9" t="n">
+        <v>382</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>91</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>GloIw, Hydrate and Cleanse with @TIAM_official 💛✨
 Which one is your favorite?
 Yesstyle code: MYSHA25🫶</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>53.82436260623229</v>
-      </c>
-      <c r="I7" t="n">
-        <v>27.40793201133144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>26.41643059490085</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.232294617563739</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H9" t="n">
+        <v>50.79872204472844</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26.38977635782748</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24.40894568690096</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.814696485623004</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7483974090764979474</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>12000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>435</v>
-      </c>
-      <c r="D8" t="n">
-        <v>341</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>94</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>GloIw, Hydrate and Cleanse with @TIAM_official 💛✨
-Which one is your favorite?
-Yesstyle code: MYSHA25🫶</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6.466666666666667</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.841666666666667</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7833333333333333</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="B10" t="n">
+        <v>13100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>455</v>
+      </c>
+      <c r="D10" t="n">
+        <v>345</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>102</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>@TIAM_official anti blemish body lotion is best for those suffering with back and chest acne, its also used to fade acne scars🩷✨</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6.106870229007633</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.473282442748091</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.633587786259542</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7786259541984732</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/photo/7483567080571178258</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B11" t="n">
         <v>1119</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C11" t="n">
         <v>383</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>360</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>74</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Which one would you like to try?🫶
 Thankyou so much @cosmetic_jolse ❤️
 @Mary&amp;May Influencers</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>66.39857015192135</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>34.22698838248436</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>32.171581769437</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>6.613047363717604</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7482884278057962759</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B12" t="n">
         <v>1745</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>441</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>420</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>98</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>In love with @Jumiso Official D-Panthenol Barrier Soothing Cream💚✨
 Suitable for all skin types🫶</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>49.34097421203438</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>25.27220630372492</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>24.06876790830945</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>5.616045845272207</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7482141669429611783</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B13" t="n">
         <v>1936</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>441</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>420</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>98</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>In love with @Jumiso Official D-Panthenol Barrier Soothing Cream💚✨
 Suitable for all skin types🫶</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>44.47314049586777</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I13" t="n">
         <v>22.77892561983471</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>21.69421487603306</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L13" t="n">
         <v>5.06198347107438</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7481385424259222802</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B14" t="n">
         <v>2521</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>482</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>388</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>93</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Reviewing Stylevana february pr, i got it late so i'm uploading in march😩
 Lmk what you think of the products 🤍</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>34.51011503371678</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>19.11939706465688</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>15.3907179690599</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>3.689012296707656</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7480321953862126855</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>2123</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>492</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>396</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>94</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Who said you can't have glass skin in 3 hours? My sister tried the new Anua heartleaf 70 soothing collagen mask and the results are amazing🤯💛</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>41.82760244936411</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>23.17475270843147</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>18.65284974093264</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>4.427696655675931</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7479517759370497288</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
         <v>4015</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>500</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D16" t="n">
         <v>395</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>93</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Resfresh and hydrate with Skinfood's carrot carrotene calming water pad and carrot carrotene daily mask!🥕🐰🧡</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>22.29140722291407</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>12.453300124533</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>9.838107098381071</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L16" t="n">
         <v>2.316313823163139</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7478780698673827079</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B17" t="n">
         <v>2598</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C17" t="n">
         <v>531</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>408</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>98</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>say goodbye to panda eyes with Mary &amp; May tranexamic acid+glutathione eye cream🐼✨
 Available at yesstyle use my code MYSHA25 to get extra 5% off💖</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>36.1431870669746</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>20.43879907621247</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>15.70438799076213</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L17" t="n">
         <v>3.772132409545804</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7478085961247640850</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
         <v>2731</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>534</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D18" t="n">
         <v>456</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>107</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>The best duo for acne prone skin and radiant brighter skin💛🌟✨
 @KSECRET GLOBAL
 @ksecret_gcc</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>36.25045770779934</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>19.55327718784328</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>16.69718051995606</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L18" t="n">
         <v>3.917978762358111</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7477681520963046674</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B19" t="n">
         <v>2711</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>591</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D19" t="n">
         <v>437</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>91</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>@YesStyle Haul day ✿✿
 Did you spotted your favorite one?💖
@@ -1307,462 +1410,462 @@
 @Medicube Global</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>37.91958686831428</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>21.80007377351531</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>16.11951309479897</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L19" t="n">
         <v>3.356694946514201</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7476893786128272647</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B20" t="n">
         <v>3632</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C20" t="n">
         <v>442</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D20" t="n">
         <v>381</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>97</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Dry, dehydrated, sensitive or irritated skin?
 You need to try the @iUNIK Beta Glucan 3x Barrier Cream🩵✨
 Available on yesstyle use my code for extra 5%: MYSHA25</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>22.65969162995595</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>12.16960352422907</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>10.49008810572687</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L20" t="n">
         <v>2.670704845814978</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7476186264123755783</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" t="n">
         <v>3232</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>344</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D21" t="n">
         <v>291</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>72</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>@OLIVE YOUNG Global BIGBANG Sale upto 77% has started from today till 7th March, Dont walk run besties and grab trending k beauty must haves! 🏃‍♀️💖</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>19.64727722772277</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I21" t="n">
         <v>10.64356435643564</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>9.003712871287128</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L21" t="n">
         <v>2.227722772277227</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7475432806391336200</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B22" t="n">
         <v>1739</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>546</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>366</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>105</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>My holy grails serums for dry/ dehydrated skin🤍
 Use my code: MYSHA25 to get 5% off on your next yesstyle order💞</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H22" t="n">
         <v>52.44393329499712</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I22" t="n">
         <v>31.39735480161012</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>21.04657849338701</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L22" t="n">
         <v>6.037952846463485</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7474356735633935622</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>1560</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>444</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>348</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>92</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>These products from @Stylevana and I are a perfect match!🎀💖🌼
 Code for 15% off: INF10MYSH
 They are offering a wide variety of products with super affordable prices💕</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>50.76923076923077</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I23" t="n">
         <v>28.46153846153846</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>22.30769230769231</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L23" t="n">
         <v>5.897435897435897</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7472849365195918600</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B24" t="n">
         <v>1465</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C24" t="n">
         <v>419</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D24" t="n">
         <v>401</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>84</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Which one do you prefer?
 sunstick or suncream☀️
 Use my code MYSHA25 for extra 5% off on your next order!💙</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H24" t="n">
         <v>55.97269624573379</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I24" t="n">
         <v>28.60068259385666</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>27.37201365187713</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L24" t="n">
         <v>5.733788395904437</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7472394148176235784</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B25" t="n">
         <v>1747</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C25" t="n">
         <v>381</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>285</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>68</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>When i first stepped into my korean skincare era, i discovered "YESSTYLE" and i placed my first order on 02/05/2025 and ever since that i became a YESTIE and i've been shopping since then🌻💞✨💖</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>38.12249570692616</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I25" t="n">
         <v>21.80881511161992</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>16.31368059530624</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L25" t="n">
         <v>3.892386949055524</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7471272474223660306</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B26" t="n">
         <v>1412</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C26" t="n">
         <v>430</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D26" t="n">
         <v>369</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>76</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>POV : You have only 3 hours to glow up💖✨
 Testing out anua's new collagen rice mask and i'm amazed 10/0!!🫶🫶🫶</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H26" t="n">
         <v>56.58640226628895</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I26" t="n">
         <v>30.45325779036827</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>26.13314447592068</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L26" t="n">
         <v>5.382436260623229</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7470213954724285703</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B27" t="n">
         <v>4733</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C27" t="n">
         <v>371</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D27" t="n">
         <v>340</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>65</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Which mixsoon essence is right for you?🤍🧸
 YESSTYLE CODE: MYSHA25 (get extra 5% off)
 @YesStyle</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>15.02218466089161</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>7.838580181702937</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>7.183604479188675</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L27" t="n">
         <v>1.373336150433129</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7469818944434621704</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B28" t="n">
         <v>2002</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C28" t="n">
         <v>573</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D28" t="n">
         <v>329</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>130</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Save or Splurge?✨
 Let me know your favorite one💖
@@ -1770,1249 +1873,1198 @@
 @YesStyle</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H28" t="n">
         <v>45.05494505494506</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I28" t="n">
         <v>28.62137862137862</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>16.43356643356643</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L28" t="n">
         <v>6.493506493506493</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7468768855846964487</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B29" t="n">
         <v>1686</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C29" t="n">
         <v>393</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D29" t="n">
         <v>327</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>64</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>@Cell Fusion C is a korean clinic based dermatologist sun care brand and is suitable for all skin types💛🌟
 YESSTYLE CODE: MYSHA25</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>42.70462633451957</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>23.30960854092527</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>19.39501779359431</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L29" t="n">
         <v>3.795966785290629</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7467967844110650631</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B30" t="n">
         <v>1378</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C30" t="n">
         <v>375</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D30" t="n">
         <v>301</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>65</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Say hello to brighter, smoother,hydrated skin with @mimumimu.official niacindy brightening toner🤍⭐️</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H30" t="n">
         <v>49.0566037735849</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I30" t="n">
         <v>27.2133526850508</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>21.84325108853411</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L30" t="n">
         <v>4.716981132075472</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7467647954694704392</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B31" t="n">
         <v>1244</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C31" t="n">
         <v>393</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D31" t="n">
         <v>333</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>91</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>I tried this cleansing duo from k-secret every night for the past week and my skin feels so smooth and i haven't experienced any new breakouts! definitely acne-prone skin friendly🤍</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H31" t="n">
         <v>58.36012861736335</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I31" t="n">
         <v>31.59163987138264</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>26.76848874598071</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L31" t="n">
         <v>7.315112540192927</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7466161688409050386</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B32" t="n">
         <v>2473</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C32" t="n">
         <v>340</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D32" t="n">
         <v>309</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>64</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Which one will you choose?💛💫
 go get your favorite one from @YesStyle use my code MYSHA25 for extra $ off!</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H32" t="n">
         <v>26.24342903356248</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I32" t="n">
         <v>13.7484836231298</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>12.49494541043267</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L32" t="n">
         <v>2.587949858471492</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7465786227464195336</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B33" t="n">
         <v>2003</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C33" t="n">
         <v>538</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D33" t="n">
         <v>426</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>88</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>@mimumimu.official Newest launch "Niacindy line" is LOVE 🤍💫
 So excited to try them out the packaging is so cute i can't 🥹🫶🫶</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H33" t="n">
         <v>48.12780828756865</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I33" t="n">
         <v>26.85971043434848</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>21.26809785322017</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L33" t="n">
         <v>4.393409885172242</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7465094538508389650</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B34" t="n">
         <v>1441</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C34" t="n">
         <v>390</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>322</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>72</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Axis-y complete no stress physical sunscreen is perfect for all skin types and skin tones💚💫
 So grateful for</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H34" t="n">
         <v>49.41013185287994</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I34" t="n">
         <v>27.06453851492019</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>22.34559333795975</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L34" t="n">
         <v>4.996530187369882</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7462825210136382727</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B35" t="n">
         <v>2041</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C35" t="n">
         <v>372</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D35" t="n">
         <v>313</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>62</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>My absolute favorite toner from @haruharu wonder 🤎
 Have you tried yet?
 if not then grab yours from @YesStyle</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>33.56197942185204</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I35" t="n">
         <v>18.22635962763351</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>15.33561979421852</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>3.037726604605585</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7461711177358265608</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B36" t="n">
         <v>2949</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
         <v>451</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>382</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>59</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>@anua_global ft my brother @Abu_ji 🤍
 I basically forced him to do this 😆
 Say goodbye to dark spots, hyperpigmentation and dry skin with this amazing duo♥️✨</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H36" t="n">
         <v>28.24686334350627</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I36" t="n">
         <v>15.29331976941336</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>12.95354357409291</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L36" t="n">
         <v>2.000678195998644</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7460596825506974983</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B37" t="n">
         <v>1302</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C37" t="n">
         <v>548</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D37" t="n">
         <v>466</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>70</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>My heart is full🥹❤️
 Thankyou@mixsoon_official ! this is such a dream come true moment,feeling so grateful and blessed🤍</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H37" t="n">
         <v>77.88018433179722</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I37" t="n">
         <v>42.08909370199693</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>35.79109062980031</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L37" t="n">
         <v>5.376344086021505</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7459849977586568455</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B38" t="n">
         <v>1218</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C38" t="n">
         <v>326</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D38" t="n">
         <v>292</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>49</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Which @TIAM_official serum is right for you?💗
 Each one has a unique superpower♡
 hydration,brightening, anti-aging, pore care and glow up magic🪄</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>50.73891625615764</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>26.76518883415435</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>23.97372742200329</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L38" t="n">
         <v>4.022988505747127</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7458793919501978887</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
         <v>1348</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>353</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>313</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>49</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>The softest + smoothest cleansing balms from @heimish_cosmetics 🤍✨ and top it up with Marine care eye cream🍵🫶 is perfect combo☁️💗</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>49.40652818991098</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>26.18694362017805</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>23.21958456973294</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L39" t="n">
         <v>3.635014836795252</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7457946199480421640</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B40" t="n">
         <v>1434</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>354</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>318</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>57</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Which one will you choose?🤍
 @Eqqualberry you're my favorite thankyouuu so muchh🫶🫶🫶</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>46.86192468619247</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I40" t="n">
         <v>24.68619246861925</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>22.17573221757322</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>3.97489539748954</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-01-12</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7457236869970021640</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B41" t="n">
         <v>1836</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C41" t="n">
         <v>355</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D41" t="n">
         <v>327</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>60</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Thankyou @Centellian24_global i absolutely loved these products ✨
 #koreanskincare #kbeauty #skincare</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H41" t="n">
         <v>37.14596949891067</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I41" t="n">
         <v>19.3355119825708</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>17.81045751633987</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L41" t="n">
         <v>3.267973856209151</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7456890979916778759</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B42" t="n">
         <v>1502</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C42" t="n">
         <v>360</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D42" t="n">
         <v>267</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>58</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>This @Eqqualberry swimming pool toner is best for people with dull skin, breakout, flakey patched skin, dark spots and uneven tone🫶</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H42" t="n">
         <v>41.74434087882823</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I42" t="n">
         <v>23.96804260985353</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>17.7762982689747</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L42" t="n">
         <v>3.861517976031957</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7454586240508103943</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B43" t="n">
         <v>1590</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C43" t="n">
         <v>340</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D43" t="n">
         <v>255</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>42</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>@SKIN1004 Official Water fit sun-serum perfect for dry skin🩵
 Hydrates your skin with serum like moisture and gives you a dewy finish✨</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H43" t="n">
         <v>37.42138364779874</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I43" t="n">
         <v>21.38364779874214</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>16.0377358490566</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L43" t="n">
         <v>2.641509433962264</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7453507790443777298</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B44" t="n">
         <v>1664</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C44" t="n">
         <v>365</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D44" t="n">
         <v>286</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>42</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>I've been feeling so low lately and had no motivation:( but thankyou so much for all the brands trusting me and giving me this opportunity! and thankyou so much to you guys for supporting me since day 1🥹💗💗</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H44" t="n">
         <v>39.12259615384615</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I44" t="n">
         <v>21.93509615384615</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>17.1875</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L44" t="n">
         <v>2.524038461538462</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7452693487780220178</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
         <v>1535</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C45" t="n">
         <v>342</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D45" t="n">
         <v>263</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>47</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>numbuzin no.3 super glowing essence toner is holy grail for glossy glass skin🧡✨
 Thankyou @numbuzin Official</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H45" t="n">
         <v>39.41368078175896</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I45" t="n">
         <v>22.28013029315961</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>17.13355048859935</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L45" t="n">
         <v>3.061889250814332</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-29</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/photo/7452011472693103879</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B46" t="n">
         <v>1173</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C46" t="n">
         <v>326</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D46" t="n">
         <v>254</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>46</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Thankyou @ALIVELAB Official 💛✨
 Stay tuned for the review 👀🍦🌈
 @YesStyle @YesStyleInfluencers</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H46" t="n">
         <v>49.44586530264279</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I46" t="n">
         <v>27.7919863597613</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>21.6538789428815</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L46" t="n">
         <v>3.92156862745098</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7451658898043325714</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B47" t="n">
         <v>1545</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C47" t="n">
         <v>312</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D47" t="n">
         <v>276</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>39</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Which one do you like the most?✨
 Use my yesstyle code to get these goodies on discount (MYSHA25) 💛🌻</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H47" t="n">
         <v>38.05825242718446</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I47" t="n">
         <v>20.19417475728155</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>17.86407766990291</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L47" t="n">
         <v>2.524271844660194</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-25</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7450847011877768456</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B48" t="n">
         <v>1192</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C48" t="n">
         <v>377</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D48" t="n">
         <v>217</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>36</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Who else can relate? 😆🤭
 Use my yesstyle code to buy these amazing products on discount &lt;MYSHA25&gt;</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>49.83221476510067</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
         <v>31.62751677852349</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>18.20469798657718</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L48" t="n">
         <v>3.02013422818792</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7449706107536248082</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B49" t="n">
         <v>1562</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C49" t="n">
         <v>270</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D49" t="n">
         <v>210</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>34</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>@Bubble Skincare @Bubble Insiders Thankyou so much for this welcome gift🫧💛
 looking forward to show off more of your products🫶</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H49" t="n">
         <v>30.72983354673495</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I49" t="n">
         <v>17.28553137003841</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>13.44430217669654</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L49" t="n">
         <v>2.176696542893726</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-21</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7448991751869582600</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B50" t="n">
         <v>1432</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C50" t="n">
         <v>368</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D50" t="n">
         <v>33</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>43</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>𐙚 Mimu Mimu Heating Calming Cleansing Oil warms upto 104F which makes the pores open and clean the sebum, blackheads~ perfect for sensetive skin🩵</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H50" t="n">
         <v>28.00279329608938</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I50" t="n">
         <v>25.69832402234637</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>2.304469273743017</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L50" t="n">
         <v>3.002793296089385</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@koreanskincareworld/video/7448243596437753106</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B51" t="n">
         <v>1598</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C51" t="n">
         <v>326</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D51" t="n">
         <v>23</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>34</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>oh i wasn't sad i just needed "skincare shopping therapy" 🤭🩷🕺
 #koreanskincare #glasskin #skincareroutine</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H51" t="n">
         <v>21.83979974968711</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I51" t="n">
         <v>20.40050062578223</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>1.439299123904881</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L51" t="n">
         <v>2.127659574468085</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-12-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@koreanskincareworld/video/7447594420356009223</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1252</v>
-      </c>
-      <c r="C50" t="n">
-        <v>366</v>
-      </c>
-      <c r="D50" t="n">
-        <v>11</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>36</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>oh i wasn't sad i just needed "skincare shopping therapy" 🤭🩷🕺
-#koreanskincare #glasskin #skincareroutine</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>30.11182108626198</v>
-      </c>
-      <c r="I50" t="n">
-        <v>29.23322683706071</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.8785942492012779</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.875399361022364</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-12-14</t>
         </is>
       </c>
     </row>
